--- a/latencies/q1-t1-c1.xlsx
+++ b/latencies/q1-t1-c1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewbruner/workspace/northwestern/MSDS420/Python-vs-Go/latencies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B95852F-050D-954A-A692-B9BEC819BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2704F-5F33-D046-86D1-C716999CDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="820" windowWidth="13080" windowHeight="16440" xr2:uid="{D068F6D3-1EFE-4941-B441-1A836115D856}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D068F6D3-1EFE-4941-B441-1A836115D856}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,15 +75,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,14 +103,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,250 +454,251 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>5.49</v>
-      </c>
-      <c r="D2">
-        <v>5366</v>
+      <c r="C2" s="2">
+        <v>5.86</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>5.71</v>
-      </c>
-      <c r="D3">
-        <v>4907</v>
+      <c r="C3" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4588</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>5.54</v>
-      </c>
-      <c r="D4">
-        <v>5325</v>
+      <c r="C4" s="2">
+        <v>6.04</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4988</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>100</v>
       </c>
-      <c r="C5">
-        <v>5.71</v>
-      </c>
-      <c r="D5">
-        <v>4917</v>
+      <c r="C5" s="3">
+        <v>6.59</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4568</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1000</v>
       </c>
-      <c r="C6">
-        <v>5.86</v>
-      </c>
-      <c r="D6">
-        <v>5032</v>
+      <c r="C6" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4549</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1000</v>
       </c>
-      <c r="C7">
-        <v>6.46</v>
-      </c>
-      <c r="D7">
-        <v>4374</v>
+      <c r="C7" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>10000</v>
       </c>
-      <c r="C8">
-        <v>8.25</v>
-      </c>
-      <c r="D8">
-        <v>3600</v>
+      <c r="C8" s="2">
+        <v>12.42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2422</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>10000</v>
       </c>
-      <c r="C9">
-        <v>12.68</v>
-      </c>
-      <c r="D9">
-        <v>2290</v>
+      <c r="C9" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2189</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>50000</v>
       </c>
-      <c r="C10">
-        <v>19.63</v>
-      </c>
-      <c r="D10">
-        <v>1525</v>
+      <c r="C10" s="2">
+        <v>38.14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>50000</v>
       </c>
-      <c r="C11">
-        <v>40.32</v>
-      </c>
-      <c r="D11">
-        <v>737</v>
+      <c r="C11" s="3">
+        <v>41.49</v>
+      </c>
+      <c r="D11" s="3">
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>100000</v>
       </c>
-      <c r="C12">
-        <v>33.76</v>
-      </c>
-      <c r="D12">
-        <v>889</v>
+      <c r="C12" s="2">
+        <v>70.48</v>
+      </c>
+      <c r="D12" s="2">
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>100000</v>
       </c>
-      <c r="C13">
-        <v>78.47</v>
-      </c>
-      <c r="D13">
-        <v>382</v>
+      <c r="C13" s="3">
+        <v>79.28</v>
+      </c>
+      <c r="D13" s="3">
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>500000</v>
       </c>
-      <c r="C14">
-        <v>143.88999999999999</v>
-      </c>
-      <c r="D14">
-        <v>210</v>
+      <c r="C14" s="2">
+        <v>309.56</v>
+      </c>
+      <c r="D14" s="2">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>500000</v>
       </c>
-      <c r="C15">
-        <v>378.76</v>
-      </c>
-      <c r="D15">
-        <v>81</v>
+      <c r="C15" s="3">
+        <v>383.01</v>
+      </c>
+      <c r="D15" s="3">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1000000</v>
       </c>
-      <c r="C16">
-        <v>278.45</v>
-      </c>
-      <c r="D16">
-        <v>109</v>
+      <c r="C16" s="2">
+        <v>595.04999999999995</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>1000000</v>
       </c>
-      <c r="C17">
-        <v>755.46</v>
-      </c>
-      <c r="D17">
-        <v>41</v>
+      <c r="C17" s="3">
+        <v>767.06</v>
+      </c>
+      <c r="D17" s="3">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
